--- a/analysis/edcr/out/top_f1/cobalt_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/cobalt_shift_new_20_results.xlsx
@@ -833,31 +833,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L6">
-        <v>0.8225806451612904</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M6">
-        <v>0.6538461538461539</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N6">
-        <v>0.7285714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.010752688172043</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.01307189542483659</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.09803921568627445</v>
       </c>
       <c r="U6" t="s">
         <v>30</v>
@@ -1025,31 +1025,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L9">
-        <v>0.8225806451612904</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="M9">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N9">
-        <v>0.7285714285714286</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.002816180235534982</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.00901722391084081</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.003423591658885664</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.01237658183840895</v>
       </c>
       <c r="U9" t="s">
         <v>30</v>
@@ -1155,31 +1155,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L11">
-        <v>0.8225806451612904</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M11">
-        <v>0.6538461538461539</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N11">
-        <v>0.7285714285714286</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0.01770259638080252</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0.02152080344332855</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="U11" t="s">
         <v>30</v>
@@ -1477,31 +1477,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L16">
-        <v>0.8225806451612904</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M16">
-        <v>0.6538461538461539</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N16">
-        <v>0.7285714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.010752688172043</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.01307189542483659</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.09803921568627445</v>
       </c>
       <c r="U16" t="s">
         <v>30</v>
@@ -1669,31 +1669,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L19">
-        <v>0.8225806451612904</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="M19">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N19">
-        <v>0.7285714285714286</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.002816180235534982</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.00901722391084081</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.003423591658885664</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.01237658183840895</v>
       </c>
       <c r="U19" t="s">
         <v>30</v>
@@ -1799,31 +1799,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L21">
-        <v>0.8225806451612904</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="M21">
-        <v>0.6538461538461539</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N21">
-        <v>0.7285714285714286</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>-0.01770259638080252</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.09642857142857142</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-0.02152080344332855</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="U21" t="s">
         <v>30</v>
@@ -2056,31 +2056,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L25">
-        <v>0.9473684210526315</v>
+        <v>0.9375</v>
       </c>
       <c r="M25">
-        <v>0.2307692307692308</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="N25">
-        <v>0.3711340206185568</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="O25">
-        <v>0.009868421052631526</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.03846153846153849</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="Q25">
-        <v>0.05198508444834399</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.01052631578947363</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.2000000000000002</v>
+        <v>1.443289932012704E-16</v>
       </c>
       <c r="T25">
-        <v>0.1628865979381445</v>
+        <v>0</v>
       </c>
       <c r="U25" t="s">
         <v>31</v>
@@ -2121,31 +2121,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L26">
-        <v>0.9473684210526315</v>
+        <v>0.9375</v>
       </c>
       <c r="M26">
-        <v>0.2307692307692308</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="N26">
-        <v>0.3711340206185568</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="O26">
-        <v>0.009868421052631526</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.03846153846153849</v>
+        <v>2.775557561562891E-17</v>
       </c>
       <c r="Q26">
-        <v>0.05198508444834399</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0.01052631578947363</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.2000000000000002</v>
+        <v>1.443289932012704E-16</v>
       </c>
       <c r="T26">
-        <v>0.1628865979381445</v>
+        <v>0</v>
       </c>
       <c r="U26" t="s">
         <v>31</v>
@@ -2313,31 +2313,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L29">
-        <v>0.9375</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M29">
-        <v>0.1923076923076923</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="N29">
-        <v>0.3191489361702128</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.003676470588235281</v>
       </c>
       <c r="P29">
-        <v>2.775557561562891E-17</v>
+        <v>0.01282051282051283</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.0176931690929451</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.003921568627450966</v>
       </c>
       <c r="S29">
-        <v>1.443289932012704E-16</v>
+        <v>0.06666666666666672</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.05543859649122799</v>
       </c>
       <c r="U29" t="s">
         <v>31</v>
@@ -2765,31 +2765,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L36">
-        <v>0.765625</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="M36">
-        <v>0.6282051282051282</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="N36">
-        <v>0.6901408450704225</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="O36">
-        <v>0.515625</v>
+        <v>0.4030612244897959</v>
       </c>
       <c r="P36">
-        <v>0.6153846153846154</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="Q36">
-        <v>0.6657506011679835</v>
+        <v>0.7028824833702881</v>
       </c>
       <c r="R36">
-        <v>2.0625</v>
+        <v>1.612244897959183</v>
       </c>
       <c r="S36">
-        <v>48.00000000000009</v>
+        <v>63.00000000000011</v>
       </c>
       <c r="T36">
-        <v>27.29577464788735</v>
+        <v>28.81818181818184</v>
       </c>
       <c r="U36" t="s">
         <v>32</v>

--- a/analysis/edcr/out/top_f1/cobalt_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/cobalt_shift_new_20_results.xlsx
@@ -549,7 +549,7 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0.8225806451612904</v>
@@ -614,7 +614,7 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>0.8225806451612904</v>
@@ -679,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>0.8225806451612904</v>
@@ -744,7 +744,7 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>0.8225806451612904</v>
@@ -809,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>0.8225806451612904</v>
@@ -871,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0.8225806451612904</v>
@@ -895,31 +895,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L7">
-        <v>0.8048780487804879</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="M7">
-        <v>0.8461538461538461</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="N7">
-        <v>0.8250000000000001</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="O7">
-        <v>-0.01770259638080252</v>
+        <v>0.02464157706093184</v>
       </c>
       <c r="P7">
-        <v>0.1923076923076923</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="Q7">
-        <v>0.09642857142857142</v>
+        <v>0.08476190476190459</v>
       </c>
       <c r="R7">
-        <v>-0.02152080344332855</v>
+        <v>0.02995642701525047</v>
       </c>
       <c r="S7">
-        <v>0.2941176470588235</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="T7">
-        <v>0.1323529411764706</v>
+        <v>0.1163398692810455</v>
       </c>
       <c r="U7" t="s">
         <v>30</v>
@@ -936,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>0.8225806451612904</v>
@@ -960,31 +960,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L8">
-        <v>0.8048780487804879</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="M8">
-        <v>0.8461538461538461</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="N8">
-        <v>0.8250000000000001</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="O8">
-        <v>-0.01770259638080252</v>
+        <v>0.02464157706093184</v>
       </c>
       <c r="P8">
-        <v>0.1923076923076923</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="Q8">
-        <v>0.09642857142857142</v>
+        <v>0.08476190476190459</v>
       </c>
       <c r="R8">
-        <v>-0.02152080344332855</v>
+        <v>0.02995642701525047</v>
       </c>
       <c r="S8">
-        <v>0.2941176470588235</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="T8">
-        <v>0.1323529411764706</v>
+        <v>0.1163398692810455</v>
       </c>
       <c r="U8" t="s">
         <v>30</v>
@@ -1001,7 +1001,7 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0.8225806451612904</v>
@@ -1066,7 +1066,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0.8225806451612904</v>
@@ -1090,31 +1090,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L10">
-        <v>0.8225806451612904</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="M10">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N10">
-        <v>0.7285714285714286</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.002816180235534982</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.00901722391084081</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.003423591658885664</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.01237658183840895</v>
       </c>
       <c r="U10" t="s">
         <v>30</v>
@@ -1131,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0.8225806451612904</v>
@@ -1155,31 +1155,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L11">
-        <v>0.8048780487804879</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="M11">
-        <v>0.8461538461538461</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N11">
-        <v>0.8250000000000001</v>
+        <v>0.8053691275167785</v>
       </c>
       <c r="O11">
-        <v>-0.01770259638080252</v>
+        <v>0.02248977737392088</v>
       </c>
       <c r="P11">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q11">
-        <v>0.09642857142857142</v>
+        <v>0.07679769894534982</v>
       </c>
       <c r="R11">
-        <v>-0.02152080344332855</v>
+        <v>0.02734051367025676</v>
       </c>
       <c r="S11">
-        <v>0.2941176470588235</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="T11">
-        <v>0.1323529411764706</v>
+        <v>0.1054086063955782</v>
       </c>
       <c r="U11" t="s">
         <v>30</v>
@@ -1193,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>0.8225806451612904</v>
@@ -1258,7 +1258,7 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>0.8225806451612904</v>
@@ -1323,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>0.8225806451612904</v>
@@ -1388,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>0.8225806451612904</v>
@@ -1453,7 +1453,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0.8225806451612904</v>
@@ -1515,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>0.8225806451612904</v>
@@ -1539,31 +1539,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L17">
-        <v>0.8048780487804879</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="M17">
-        <v>0.8461538461538461</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="N17">
-        <v>0.8250000000000001</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="O17">
-        <v>-0.01770259638080252</v>
+        <v>0.02464157706093184</v>
       </c>
       <c r="P17">
-        <v>0.1923076923076923</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="Q17">
-        <v>0.09642857142857142</v>
+        <v>0.08476190476190459</v>
       </c>
       <c r="R17">
-        <v>-0.02152080344332855</v>
+        <v>0.02995642701525047</v>
       </c>
       <c r="S17">
-        <v>0.2941176470588235</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="T17">
-        <v>0.1323529411764706</v>
+        <v>0.1163398692810455</v>
       </c>
       <c r="U17" t="s">
         <v>30</v>
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>0.8225806451612904</v>
@@ -1604,31 +1604,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L18">
-        <v>0.8048780487804879</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="M18">
-        <v>0.8461538461538461</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="N18">
-        <v>0.8250000000000001</v>
+        <v>0.8133333333333332</v>
       </c>
       <c r="O18">
-        <v>-0.01770259638080252</v>
+        <v>0.02464157706093184</v>
       </c>
       <c r="P18">
-        <v>0.1923076923076923</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="Q18">
-        <v>0.09642857142857142</v>
+        <v>0.08476190476190459</v>
       </c>
       <c r="R18">
-        <v>-0.02152080344332855</v>
+        <v>0.02995642701525047</v>
       </c>
       <c r="S18">
-        <v>0.2941176470588235</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="T18">
-        <v>0.1323529411764706</v>
+        <v>0.1163398692810455</v>
       </c>
       <c r="U18" t="s">
         <v>30</v>
@@ -1645,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0.8225806451612904</v>
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>0.8225806451612904</v>
@@ -1734,31 +1734,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L20">
-        <v>0.8225806451612904</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="M20">
-        <v>0.6538461538461539</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N20">
-        <v>0.7285714285714286</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.002816180235534982</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.00901722391084081</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.003423591658885664</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.01960784313725483</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.01237658183840895</v>
       </c>
       <c r="U20" t="s">
         <v>30</v>
@@ -1775,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>0.8225806451612904</v>
@@ -1799,31 +1799,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L21">
-        <v>0.8048780487804879</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="M21">
-        <v>0.8461538461538461</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="N21">
-        <v>0.8250000000000001</v>
+        <v>0.8053691275167785</v>
       </c>
       <c r="O21">
-        <v>-0.01770259638080252</v>
+        <v>0.02248977737392088</v>
       </c>
       <c r="P21">
-        <v>0.1923076923076923</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Q21">
-        <v>0.09642857142857142</v>
+        <v>0.07679769894534982</v>
       </c>
       <c r="R21">
-        <v>-0.02152080344332855</v>
+        <v>0.02734051367025676</v>
       </c>
       <c r="S21">
-        <v>0.2941176470588235</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="T21">
-        <v>0.1323529411764706</v>
+        <v>0.1054086063955782</v>
       </c>
       <c r="U21" t="s">
         <v>30</v>
@@ -1837,7 +1837,7 @@
         <v>28</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>0.9375</v>
@@ -1902,7 +1902,7 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>0.9375</v>
@@ -1967,7 +1967,7 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>0.9375</v>
@@ -2032,7 +2032,7 @@
         <v>28</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>0.9375</v>
@@ -2097,7 +2097,7 @@
         <v>28</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>0.9375</v>
@@ -2159,7 +2159,7 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>0.9375</v>
@@ -2183,31 +2183,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L27">
-        <v>0.9375</v>
+        <v>0.95</v>
       </c>
       <c r="M27">
-        <v>0.1923076923076923</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="N27">
-        <v>0.3191489361702128</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01249999999999996</v>
       </c>
       <c r="P27">
-        <v>2.775557561562891E-17</v>
+        <v>0.05128205128205129</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.06860616587060353</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.01333333333333329</v>
       </c>
       <c r="S27">
-        <v>1.443289932012704E-16</v>
+        <v>0.2666666666666668</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.2149659863945577</v>
       </c>
       <c r="U27" t="s">
         <v>31</v>
@@ -2224,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>0.9375</v>
@@ -2248,31 +2248,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L28">
-        <v>0.9375</v>
+        <v>0.95</v>
       </c>
       <c r="M28">
-        <v>0.1923076923076923</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="N28">
-        <v>0.3191489361702128</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01249999999999996</v>
       </c>
       <c r="P28">
-        <v>2.775557561562891E-17</v>
+        <v>0.05128205128205129</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.06860616587060353</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.01333333333333329</v>
       </c>
       <c r="S28">
-        <v>1.443289932012704E-16</v>
+        <v>0.2666666666666668</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.2149659863945577</v>
       </c>
       <c r="U28" t="s">
         <v>31</v>
@@ -2289,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>0.9375</v>
@@ -2354,7 +2354,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>0.9375</v>
@@ -2419,7 +2419,7 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>0.9375</v>
@@ -2443,31 +2443,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L31">
-        <v>0.9375</v>
+        <v>0.95</v>
       </c>
       <c r="M31">
-        <v>0.1923076923076923</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="N31">
-        <v>0.3191489361702128</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01249999999999996</v>
       </c>
       <c r="P31">
-        <v>2.775557561562891E-17</v>
+        <v>0.05128205128205129</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.06860616587060353</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.01333333333333329</v>
       </c>
       <c r="S31">
-        <v>1.443289932012704E-16</v>
+        <v>0.2666666666666668</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.2149659863945577</v>
       </c>
       <c r="U31" t="s">
         <v>31</v>
@@ -2481,7 +2481,7 @@
         <v>28</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -2505,31 +2505,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L32">
-        <v>0.6530612244897959</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="M32">
-        <v>0.8205128205128205</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="N32">
-        <v>0.7272727272727272</v>
+        <v>0.5034965034965035</v>
       </c>
       <c r="O32">
-        <v>0.4030612244897959</v>
+        <v>0.09615384615384615</v>
       </c>
       <c r="P32">
-        <v>0.8076923076923077</v>
+        <v>0.9102564102564104</v>
       </c>
       <c r="Q32">
-        <v>0.7028824833702881</v>
+        <v>0.4791062595940646</v>
       </c>
       <c r="R32">
-        <v>1.612244897959183</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="S32">
-        <v>63.00000000000011</v>
+        <v>71.00000000000013</v>
       </c>
       <c r="T32">
-        <v>28.81818181818184</v>
+        <v>19.64335664335666</v>
       </c>
       <c r="U32" t="s">
         <v>32</v>
@@ -2546,7 +2546,7 @@
         <v>28</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -2570,31 +2570,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L33">
-        <v>0.5476190476190477</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="M33">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0.6764705882352942</v>
+        <v>0.4031007751937985</v>
       </c>
       <c r="O33">
-        <v>0.2976190476190477</v>
+        <v>0.002427184466019416</v>
       </c>
       <c r="P33">
-        <v>0.8717948717948718</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="Q33">
-        <v>0.6520803443328551</v>
+        <v>0.3787105312913595</v>
       </c>
       <c r="R33">
-        <v>1.190476190476191</v>
+        <v>0.009708737864077666</v>
       </c>
       <c r="S33">
-        <v>68.00000000000011</v>
+        <v>77.00000000000013</v>
       </c>
       <c r="T33">
-        <v>26.73529411764709</v>
+        <v>15.52713178294576</v>
       </c>
       <c r="U33" t="s">
         <v>32</v>
@@ -2611,7 +2611,7 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>0.25</v>
@@ -2635,31 +2635,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L34">
-        <v>0.765625</v>
+        <v>0.2818181818181818</v>
       </c>
       <c r="M34">
-        <v>0.6282051282051282</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="N34">
-        <v>0.6901408450704225</v>
+        <v>0.4161073825503355</v>
       </c>
       <c r="O34">
-        <v>0.515625</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="P34">
-        <v>0.6153846153846154</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="Q34">
-        <v>0.6657506011679835</v>
+        <v>0.3917171386478965</v>
       </c>
       <c r="R34">
-        <v>2.0625</v>
+        <v>0.1272727272727272</v>
       </c>
       <c r="S34">
-        <v>48.00000000000009</v>
+        <v>61.0000000000001</v>
       </c>
       <c r="T34">
-        <v>27.29577464788735</v>
+        <v>16.06040268456377</v>
       </c>
       <c r="U34" t="s">
         <v>32</v>
@@ -2676,7 +2676,7 @@
         <v>28</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>0.25</v>
@@ -2700,31 +2700,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L35">
-        <v>0.765625</v>
+        <v>0.2818181818181818</v>
       </c>
       <c r="M35">
-        <v>0.6282051282051282</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="N35">
-        <v>0.6901408450704225</v>
+        <v>0.4161073825503355</v>
       </c>
       <c r="O35">
-        <v>0.515625</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="P35">
-        <v>0.6153846153846154</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="Q35">
-        <v>0.6657506011679835</v>
+        <v>0.3917171386478965</v>
       </c>
       <c r="R35">
-        <v>2.0625</v>
+        <v>0.1272727272727272</v>
       </c>
       <c r="S35">
-        <v>48.00000000000009</v>
+        <v>61.0000000000001</v>
       </c>
       <c r="T35">
-        <v>27.29577464788735</v>
+        <v>16.06040268456377</v>
       </c>
       <c r="U35" t="s">
         <v>32</v>
@@ -2741,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>0.25</v>
@@ -2765,31 +2765,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L36">
-        <v>0.6530612244897959</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="M36">
-        <v>0.8205128205128205</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="N36">
-        <v>0.7272727272727272</v>
+        <v>0.5034965034965035</v>
       </c>
       <c r="O36">
-        <v>0.4030612244897959</v>
+        <v>0.09615384615384615</v>
       </c>
       <c r="P36">
-        <v>0.8076923076923077</v>
+        <v>0.9102564102564104</v>
       </c>
       <c r="Q36">
-        <v>0.7028824833702881</v>
+        <v>0.4791062595940646</v>
       </c>
       <c r="R36">
-        <v>1.612244897959183</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="S36">
-        <v>63.00000000000011</v>
+        <v>71.00000000000013</v>
       </c>
       <c r="T36">
-        <v>28.81818181818184</v>
+        <v>19.64335664335666</v>
       </c>
       <c r="U36" t="s">
         <v>32</v>
@@ -2803,7 +2803,7 @@
         <v>29</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>0.25</v>
@@ -2827,31 +2827,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L37">
-        <v>0.6941176470588235</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="M37">
-        <v>0.7564102564102564</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="N37">
-        <v>0.7239263803680981</v>
+        <v>0.5948275862068966</v>
       </c>
       <c r="O37">
-        <v>0.4441176470588235</v>
+        <v>0.198051948051948</v>
       </c>
       <c r="P37">
-        <v>0.7435897435897436</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="Q37">
-        <v>0.699536136465659</v>
+        <v>0.5704373423044575</v>
       </c>
       <c r="R37">
-        <v>1.776470588235294</v>
+        <v>0.7922077922077921</v>
       </c>
       <c r="S37">
-        <v>58.0000000000001</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="T37">
-        <v>28.68098159509205</v>
+        <v>23.38793103448278</v>
       </c>
       <c r="U37" t="s">
         <v>32</v>
@@ -2868,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E38">
         <v>0.25</v>
@@ -2892,31 +2892,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L38">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M38">
         <v>0.02564102564102564</v>
       </c>
       <c r="N38">
-        <v>0.04761904761904762</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="O38">
-        <v>0.08333333333333331</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="P38">
         <v>0.01282051282051284</v>
       </c>
       <c r="Q38">
-        <v>0.02322880371660862</v>
+        <v>0.02266857962697276</v>
       </c>
       <c r="R38">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S38">
         <v>1.000000000000003</v>
       </c>
       <c r="T38">
-        <v>0.9523809523809541</v>
+        <v>0.9294117647058839</v>
       </c>
       <c r="U38" t="s">
         <v>32</v>
@@ -2933,7 +2933,7 @@
         <v>29</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>0.25</v>
@@ -2957,31 +2957,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L39">
-        <v>0.6941176470588235</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="M39">
-        <v>0.7564102564102564</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="N39">
-        <v>0.7239263803680981</v>
+        <v>0.5948275862068966</v>
       </c>
       <c r="O39">
-        <v>0.4441176470588235</v>
+        <v>0.198051948051948</v>
       </c>
       <c r="P39">
-        <v>0.7435897435897436</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="Q39">
-        <v>0.699536136465659</v>
+        <v>0.5704373423044575</v>
       </c>
       <c r="R39">
-        <v>1.776470588235294</v>
+        <v>0.7922077922077921</v>
       </c>
       <c r="S39">
-        <v>58.0000000000001</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="T39">
-        <v>28.68098159509205</v>
+        <v>23.38793103448278</v>
       </c>
       <c r="U39" t="s">
         <v>32</v>
@@ -2998,7 +2998,7 @@
         <v>29</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>0.25</v>
@@ -3022,31 +3022,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L40">
-        <v>0.6941176470588235</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="M40">
-        <v>0.7564102564102564</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="N40">
-        <v>0.7239263803680981</v>
+        <v>0.5948275862068966</v>
       </c>
       <c r="O40">
-        <v>0.4441176470588235</v>
+        <v>0.198051948051948</v>
       </c>
       <c r="P40">
-        <v>0.7435897435897436</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="Q40">
-        <v>0.699536136465659</v>
+        <v>0.5704373423044575</v>
       </c>
       <c r="R40">
-        <v>1.776470588235294</v>
+        <v>0.7922077922077921</v>
       </c>
       <c r="S40">
-        <v>58.0000000000001</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="T40">
-        <v>28.68098159509205</v>
+        <v>23.38793103448278</v>
       </c>
       <c r="U40" t="s">
         <v>32</v>
@@ -3063,7 +3063,7 @@
         <v>29</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0.25</v>
@@ -3087,31 +3087,31 @@
         <v>0.1547619047619048</v>
       </c>
       <c r="L41">
-        <v>0.6941176470588235</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="M41">
-        <v>0.7564102564102564</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="N41">
-        <v>0.7239263803680981</v>
+        <v>0.5948275862068966</v>
       </c>
       <c r="O41">
-        <v>0.4441176470588235</v>
+        <v>0.198051948051948</v>
       </c>
       <c r="P41">
-        <v>0.7435897435897436</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="Q41">
-        <v>0.699536136465659</v>
+        <v>0.5704373423044575</v>
       </c>
       <c r="R41">
-        <v>1.776470588235294</v>
+        <v>0.7922077922077921</v>
       </c>
       <c r="S41">
-        <v>58.0000000000001</v>
+        <v>68.00000000000011</v>
       </c>
       <c r="T41">
-        <v>28.68098159509205</v>
+        <v>23.38793103448278</v>
       </c>
       <c r="U41" t="s">
         <v>32</v>
